--- a/PPM50_TestData_Enter, Create and Submit Manual Project Contract_21B.xlsx
+++ b/PPM50_TestData_Enter, Create and Submit Manual Project Contract_21B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299C2702-CA6B-49CA-8AF0-CEE75B623DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC9A4B7-1EA2-4DFC-94E2-A7115727FF9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{7B660B18-6AD7-45EE-A5DE-8973734DB4E0}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{7B660B18-6AD7-45EE-A5DE-8973734DB4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -122,24 +122,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>userid</t>
   </si>
   <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>Oracle1234</t>
-  </si>
-  <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
   </si>
   <si>
     <t>BusinessUnit</t>
@@ -1040,223 +1031,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9EF5B2-6E6B-41EA-8C9B-9D41C8BB58FC}">
   <dimension ref="A1:BC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BA2:BC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="16" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AR1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV1" t="s">
         <v>60</v>
       </c>
-      <c r="AU1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>63</v>
-      </c>
       <c r="AW1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB1" t="s">
         <v>0</v>
       </c>
       <c r="BC1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1282,37 +1273,37 @@
         <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s">
         <v>72</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" t="s">
-        <v>75</v>
       </c>
       <c r="T2" s="5">
         <v>123902</v>
@@ -1333,94 +1324,86 @@
         <v>217359</v>
       </c>
       <c r="Z2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2">
         <v>20</v>
       </c>
       <c r="AC2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE2">
         <v>30</v>
       </c>
       <c r="AF2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AG2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AJ2" s="5">
         <v>123902</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AL2">
         <v>217357</v>
       </c>
       <c r="AM2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AN2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AO2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AP2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AQ2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AR2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AS2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AT2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AU2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AW2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AX2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AY2">
         <v>20</v>
       </c>
-      <c r="BA2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>3</v>
-      </c>
+      <c r="BA2" s="2"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="L4">
         <v>3</v>
       </c>
@@ -1428,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AC6" t="str">
         <f>[1]Input!$I$2</f>
         <v>Project Test Automation 4x_SM6</v>
@@ -1483,11 +1466,8 @@
   <conditionalFormatting sqref="AJ1">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="BA2" r:id="rId1" display="https://edrx.fa.us2.oraclecloud.com/" xr:uid="{AB3F26A8-AA4B-4DA7-ACCF-81209A9EC778}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1497,7 +1477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1511,19 +1491,19 @@
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
